--- a/File Information.xlsx
+++ b/File Information.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Copyright: AW. Please contact me at Majeddh22@outlook.com</t>
+  </si>
+  <si>
+    <t>https://github.com/majedunl/Cornelia-Sorabji-</t>
+  </si>
+  <si>
+    <t>https://github.com/majedunl/Cornelia-Sorabji.github.io</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,8 +710,14 @@
       <c r="E2">
         <v>2022</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G2" t="s">
         <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -724,8 +736,14 @@
       <c r="E3">
         <v>2022</v>
       </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -744,8 +762,14 @@
       <c r="E4">
         <v>2022</v>
       </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -764,8 +788,14 @@
       <c r="E5">
         <v>2022</v>
       </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -784,8 +814,14 @@
       <c r="E6">
         <v>2022</v>
       </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -804,8 +840,14 @@
       <c r="E7">
         <v>2022</v>
       </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="390">
@@ -1078,8 +1120,9 @@
     <hyperlink ref="H15" r:id="rId5"/>
     <hyperlink ref="H16" r:id="rId6"/>
     <hyperlink ref="H17" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/File Information.xlsx
+++ b/File Information.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>File Name</t>
   </si>
@@ -272,12 +272,169 @@
   <si>
     <t>https://github.com/majedunl/Cornelia-Sorabji.github.io</t>
   </si>
+  <si>
+    <t>OMV_ALA_017.jpg</t>
+  </si>
+  <si>
+    <t>Barnett, Henry Walter</t>
+  </si>
+  <si>
+    <t>“Cornelia Sorabji (with Superimposed Facsimile Signature)” ([Early twentieth century]). One More Voice (an imprint of Livingstone Online), site launch edition, 2020,</t>
+  </si>
+  <si>
+    <t>OneMoreVoice</t>
+  </si>
+  <si>
+    <r>
+      <t>Barnett, Henry Walter. “Cornelia Sorabji (with Superimposed Facsimile Signature)” ([Early twentieth century]). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF191716"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>One More Voice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF191716"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> (an imprint of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF191716"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Livingstone Online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF191716"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>), site launch edition, 2020,</t>
+    </r>
+  </si>
+  <si>
+    <t>https://onemorevoice.org/html/transcriptions/liv_021015_ART.html</t>
+  </si>
+  <si>
+    <t>OMV_ALA_018.jpg</t>
+  </si>
+  <si>
+    <t>Rol , Agence.</t>
+  </si>
+  <si>
+    <t> "Cornelia Sorabji at the 1924 Braemar Gathering."</t>
+  </si>
+  <si>
+    <r>
+      <t>This work is in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3366BB"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>public domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3366BB"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> because it was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0645AD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>published</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (or registered with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3366BB"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>U.S. Copyright Office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) before January 1, 1927.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Cornelia_Sorabji_at_the_1924_Braemar_Gathering.jpg</t>
+  </si>
+  <si>
+    <t>OMV_ALA_019.docx</t>
+  </si>
+  <si>
+    <t>Majed Alatawi</t>
+  </si>
+  <si>
+    <t>Project History</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +461,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF191716"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF191716"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3366BB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3366BB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0645AD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,7 +940,7 @@
       <c r="E3">
         <v>2022</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -876,7 +1080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="360">
+    <row r="9" spans="1:8" ht="210">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -928,7 +1132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="345">
+    <row r="11" spans="1:8" ht="180">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -954,7 +1158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="330">
+    <row r="12" spans="1:8" ht="180">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="300">
+    <row r="14" spans="1:8" ht="165">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1108,21 +1312,91 @@
       </c>
       <c r="H17" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>1901</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>1924</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1"/>
     <hyperlink ref="H14" r:id="rId2"/>
-    <hyperlink ref="H11"/>
+    <hyperlink ref="H11" display="https://commons.wikimedia.org/wiki/File:A_glimpse_of_India_-_being_a_collection_of_extracts_from_the_letters_Dr._Clara_A._Swain,_first_medical_missionary_to_India_of_the_Woman%27s_Foreign_Missionary_Society_of_the_Methodist_Episcopal_Church_(14580058957)."/>
     <hyperlink ref="H12" r:id="rId3"/>
     <hyperlink ref="H13" r:id="rId4"/>
     <hyperlink ref="H15" r:id="rId5"/>
     <hyperlink ref="H16" r:id="rId6"/>
     <hyperlink ref="H17" r:id="rId7"/>
     <hyperlink ref="F2" r:id="rId8"/>
+    <hyperlink ref="F3" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>